--- a/src/example/data33_14.xlsx
+++ b/src/example/data33_14.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\16. GitHub\GaussBP\src\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\16. GitHub\FactorGraph.jl\src\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10517D2C-CE14-4F28-92BF-2495B78CC682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B819C755-1FC5-4288-BA1A-C7ED02734F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="1755" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jacobian" sheetId="1" r:id="rId1"/>
-    <sheet name="measurement" sheetId="3" r:id="rId2"/>
+    <sheet name="observation" sheetId="3" r:id="rId2"/>
+    <sheet name="variance" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1183,16 +1184,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
@@ -1206,275 +1206,361 @@
     <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-8.7476927999999995E-2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.259210842</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.242730471</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.242719726</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.27867677400000002</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.281695364</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-0.29997620600000002</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.183367375</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-0.94065622999999998</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-7.7346634999999997E-2</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.112748813</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-2.15539E-4</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-3.5635800000000002E-2</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.1994423E-2</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-0.134358588</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.14877047700000001</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.71200859400000005</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.40896922800000002</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.55225628199999999</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.24260378099999999</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9.6901143999999995E-2</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-3.2970492999999997E-2</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7.6149458000000003E-2</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.3230570999999997E-2</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.42762028400000002</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.28456516599999998</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4.6799999999999999E-5</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.28324779300000003</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
-      <c r="B34">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F809F5E-87E9-4453-8D2A-D8418BABEE74}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>1</v>
       </c>
     </row>
